--- a/data_year/zb/国民经济核算/三次产业贡献率.xlsx
+++ b/data_year/zb/国民经济核算/三次产业贡献率.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,400 +458,248 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>4.1413955349</v>
+        <v>3.5728540425</v>
       </c>
       <c r="D2" t="n">
-        <v>36.2385914747</v>
+        <v>39.0202241635</v>
       </c>
       <c r="E2" t="n">
-        <v>59.6200129904</v>
+        <v>57.406921794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>4.6446987711</v>
+        <v>4.0756643137</v>
       </c>
       <c r="D3" t="n">
-        <v>48.9695365943</v>
+        <v>43.8869629075</v>
       </c>
       <c r="E3" t="n">
-        <v>46.3857646346</v>
+        <v>52.0373727788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>4.1102034861</v>
+        <v>5.0366806371</v>
       </c>
       <c r="D4" t="n">
-        <v>46.4882835675</v>
+        <v>44.9959360643</v>
       </c>
       <c r="E4" t="n">
-        <v>49.4015129464</v>
+        <v>49.9673832986</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0920016481</v>
+        <v>4.2102084362</v>
       </c>
       <c r="D5" t="n">
-        <v>38.9610413159</v>
+        <v>47.2477668427</v>
       </c>
       <c r="E5" t="n">
-        <v>57.946957036</v>
+        <v>48.5420247211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>7.3482214895</v>
+        <v>4.5124553853</v>
       </c>
       <c r="D6" t="n">
-        <v>40.8360723748</v>
+        <v>49.913126261</v>
       </c>
       <c r="E6" t="n">
-        <v>51.8157061357</v>
+        <v>45.5744183537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>5.2232533352</v>
+        <v>4.4363898474</v>
       </c>
       <c r="D7" t="n">
-        <v>44.2630657389</v>
+        <v>55.8547362941</v>
       </c>
       <c r="E7" t="n">
-        <v>50.5136809259</v>
+        <v>39.7088738585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>4.3517604208</v>
+        <v>4.014020383</v>
       </c>
       <c r="D8" t="n">
-        <v>45.9282025637</v>
+        <v>60.0183342521</v>
       </c>
       <c r="E8" t="n">
-        <v>49.7200370155</v>
+        <v>35.9676453649</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>2.6788081309</v>
+        <v>4.6224460324</v>
       </c>
       <c r="D9" t="n">
-        <v>47.2676428322</v>
+        <v>61.1428164087</v>
       </c>
       <c r="E9" t="n">
-        <v>50.0535490369</v>
+        <v>34.2347375588</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>5.2383147676</v>
+        <v>4.0663163411</v>
       </c>
       <c r="D10" t="n">
-        <v>46.1649092565</v>
+        <v>61.5041109345</v>
       </c>
       <c r="E10" t="n">
-        <v>48.5967759759</v>
+        <v>34.4295727245</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>4.00417661</v>
+        <v>3.94996947291915</v>
       </c>
       <c r="D11" t="n">
-        <v>43.7050834165</v>
+        <v>63.4786147408777</v>
       </c>
       <c r="E11" t="n">
-        <v>52.2907399735</v>
+        <v>32.5714157862032</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>3.5728540425</v>
+        <v>10.3948359320459</v>
       </c>
       <c r="D12" t="n">
-        <v>39.0202241635</v>
+        <v>46.2822463104876</v>
       </c>
       <c r="E12" t="n">
-        <v>57.406921794</v>
+        <v>43.3229177574657</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0756643137</v>
+        <v>6.4</v>
       </c>
       <c r="D13" t="n">
-        <v>43.8869629075</v>
+        <v>54.7</v>
       </c>
       <c r="E13" t="n">
-        <v>52.0373727788</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0366806371</v>
+        <v>10.5</v>
       </c>
       <c r="D14" t="n">
-        <v>44.9959360643</v>
+        <v>41.8</v>
       </c>
       <c r="E14" t="n">
-        <v>49.9673832986</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4.2102084362</v>
-      </c>
-      <c r="D15" t="n">
-        <v>47.2477668427</v>
-      </c>
-      <c r="E15" t="n">
-        <v>48.5420247211</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>100</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4.5124553853</v>
-      </c>
-      <c r="D16" t="n">
-        <v>49.913126261</v>
-      </c>
-      <c r="E16" t="n">
-        <v>45.5744183537</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>100</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4.4363898474</v>
-      </c>
-      <c r="D17" t="n">
-        <v>55.8547362941</v>
-      </c>
-      <c r="E17" t="n">
-        <v>39.7088738585</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>100</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4.014020383</v>
-      </c>
-      <c r="D18" t="n">
-        <v>60.0183342521</v>
-      </c>
-      <c r="E18" t="n">
-        <v>35.9676453649</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>100</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4.6224460324</v>
-      </c>
-      <c r="D19" t="n">
-        <v>61.1428164087</v>
-      </c>
-      <c r="E19" t="n">
-        <v>34.2347375588</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>100</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4.0663163411</v>
-      </c>
-      <c r="D20" t="n">
-        <v>61.5041109345</v>
-      </c>
-      <c r="E20" t="n">
-        <v>34.4295727245</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>100</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3.94996947291915</v>
-      </c>
-      <c r="D21" t="n">
-        <v>63.4786147408777</v>
-      </c>
-      <c r="E21" t="n">
-        <v>32.5714157862032</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>100</v>
-      </c>
-      <c r="C22" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="D22" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>43.3</v>
+        <v>47.7</v>
       </c>
     </row>
   </sheetData>
